--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/打鍵後のUCL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8062857-F049-4668-A0F7-324BFA356688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1699B4-AA07-44A7-AB6C-981199111C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>team-b李</t>
+    <t>EB李(YY)</t>
     <rPh sb="2" eb="3">
       <t>リ</t>
     </rPh>
@@ -903,7 +903,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
